--- a/2024Attendance records.xlsx
+++ b/2024Attendance records.xlsx
@@ -19,7 +19,7 @@
     <sheet name="10月" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="11月" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="12月" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="temp" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="temp1" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>欠席</t>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>出席</t>
+          <t>欠席</t>
         </is>
       </c>
     </row>
@@ -2644,6 +2644,11 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>出席</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2654,6 +2659,11 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>出席</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2664,6 +2674,11 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>出席</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2674,6 +2689,11 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>出席</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2684,6 +2704,11 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2694,6 +2719,11 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2704,6 +2734,11 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2714,6 +2749,11 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2724,6 +2764,11 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2734,6 +2779,11 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2744,6 +2794,11 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2754,6 +2809,11 @@
       <c r="B13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2764,6 +2824,11 @@
       <c r="B14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2774,6 +2839,11 @@
       <c r="B15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2784,6 +2854,11 @@
       <c r="B16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2794,6 +2869,11 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2804,6 +2884,11 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2814,6 +2899,11 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2824,6 +2914,11 @@
       <c r="B20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2834,6 +2929,11 @@
       <c r="B21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2844,6 +2944,11 @@
       <c r="B22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2854,6 +2959,11 @@
       <c r="B23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2864,6 +2974,11 @@
       <c r="B24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2874,6 +2989,11 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2884,6 +3004,11 @@
       <c r="B26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2893,6 +3018,11 @@
       </c>
       <c r="B27" t="n">
         <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>欠席</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/2024Attendance records.xlsx
+++ b/2024Attendance records.xlsx
@@ -19,7 +19,6 @@
     <sheet name="10月" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="11月" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="12月" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="temp1" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -38,12 +37,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADFF2F"/>
+        <bgColor rgb="00ADFF2F"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -58,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2096,432 +2102,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>名前</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>学年</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>出席状況</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>八木</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>出席</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>大平</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>石井</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>入江</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>別府</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>高橋</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>齊藤</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>大和田</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>服部</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山川</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>多田</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>高岡</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>新西</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>吉川</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>村上</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>西澤</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>百本</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>柴山</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>廣田</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>小田</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>河田</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>宮崎</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>藤村</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>清水</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>園田</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>横山</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>欠席</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2644,7 +2224,7 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>出席</t>
         </is>
@@ -2659,7 +2239,7 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H3" s="1" t="inlineStr">
         <is>
           <t>出席</t>
         </is>
@@ -2674,7 +2254,7 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>出席</t>
         </is>
@@ -2689,7 +2269,7 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>出席</t>
         </is>
@@ -2704,9 +2284,9 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2719,9 +2299,9 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2734,9 +2314,9 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2749,9 +2329,9 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2764,9 +2344,9 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H10" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2779,9 +2359,9 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2794,9 +2374,9 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2809,9 +2389,9 @@
       <c r="B13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2824,9 +2404,9 @@
       <c r="B14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2839,9 +2419,9 @@
       <c r="B15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H15" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2854,9 +2434,9 @@
       <c r="B16" t="n">
         <v>2</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2869,9 +2449,9 @@
       <c r="B17" t="n">
         <v>2</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2884,9 +2464,9 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2899,9 +2479,9 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2914,9 +2494,9 @@
       <c r="B20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2929,9 +2509,9 @@
       <c r="B21" t="n">
         <v>2</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H21" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2944,9 +2524,9 @@
       <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2959,9 +2539,9 @@
       <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H23" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2974,9 +2554,9 @@
       <c r="B24" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -2989,9 +2569,9 @@
       <c r="B25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H25" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -3004,9 +2584,9 @@
       <c r="B26" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
@@ -3019,9 +2599,9 @@
       <c r="B27" t="n">
         <v>2</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>欠席</t>
+      <c r="H27" s="1" t="inlineStr">
+        <is>
+          <t>出席</t>
         </is>
       </c>
     </row>
